--- a/output/AZ_26323079000185.xlsx
+++ b/output/AZ_26323079000185.xlsx
@@ -900,10 +900,10 @@
         <v>44165</v>
       </c>
       <c r="B47">
-        <v>0.46955525</v>
+        <v>0.4702226</v>
       </c>
       <c r="C47">
-        <v>0.001740106088843785</v>
+        <v>0.002195013285969161</v>
       </c>
     </row>
   </sheetData>

--- a/output/AZ_26323079000185.xlsx
+++ b/output/AZ_26323079000185.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>AZ QUEST MULTI MAX FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42794</v>
       </c>
@@ -411,499 +405,364 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42825</v>
       </c>
       <c r="B3">
         <v>0.02413825999999997</v>
       </c>
-      <c r="C3">
-        <v>0.02413825999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42855</v>
       </c>
       <c r="B4">
-        <v>0.0305461199999999</v>
-      </c>
-      <c r="C4">
         <v>0.006256830986862916</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42886</v>
       </c>
       <c r="B5">
-        <v>0.0005668199999999679</v>
-      </c>
-      <c r="C5">
         <v>-0.02909069222442939</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42916</v>
       </c>
       <c r="B6">
-        <v>0.01139680999999992</v>
-      </c>
-      <c r="C6">
         <v>0.01082385482260939</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42947</v>
       </c>
       <c r="B7">
-        <v>0.07187633000000004</v>
-      </c>
-      <c r="C7">
         <v>0.05979801340287016</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42978</v>
       </c>
       <c r="B8">
-        <v>0.09840603000000003</v>
-      </c>
-      <c r="C8">
         <v>0.02475070981369654</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43008</v>
       </c>
       <c r="B9">
-        <v>0.1327764600000001</v>
-      </c>
-      <c r="C9">
         <v>0.03129118837776224</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43039</v>
       </c>
       <c r="B10">
-        <v>0.1252745399999999</v>
-      </c>
-      <c r="C10">
         <v>-0.006622595247080088</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43069</v>
       </c>
       <c r="B11">
-        <v>0.12568885</v>
-      </c>
-      <c r="C11">
         <v>0.0003681857051525128</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43100</v>
       </c>
       <c r="B12">
-        <v>0.14257206</v>
-      </c>
-      <c r="C12">
         <v>0.01499811426576714</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43131</v>
       </c>
       <c r="B13">
-        <v>0.1790240400000001</v>
-      </c>
-      <c r="C13">
         <v>0.03190344073353235</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43159</v>
       </c>
       <c r="B14">
-        <v>0.19977511</v>
-      </c>
-      <c r="C14">
         <v>0.01760020940709572</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43190</v>
       </c>
       <c r="B15">
-        <v>0.2111493600000001</v>
-      </c>
-      <c r="C15">
         <v>0.009480318357329542</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43220</v>
       </c>
       <c r="B16">
-        <v>0.21242988</v>
-      </c>
-      <c r="C16">
         <v>0.001057276701198928</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43251</v>
       </c>
       <c r="B17">
-        <v>0.2115707499999999</v>
-      </c>
-      <c r="C17">
         <v>-0.0007086018038421349</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43281</v>
       </c>
       <c r="B18">
-        <v>0.2289752899999999</v>
-      </c>
-      <c r="C18">
         <v>0.01436526921766634</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43312</v>
       </c>
       <c r="B19">
-        <v>0.23970055</v>
-      </c>
-      <c r="C19">
         <v>0.008726994014664147</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43343</v>
       </c>
       <c r="B20">
-        <v>0.2345652199999999</v>
-      </c>
-      <c r="C20">
         <v>-0.004142395516401165</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43373</v>
       </c>
       <c r="B21">
-        <v>0.2298273900000001</v>
-      </c>
-      <c r="C21">
         <v>-0.003837650634609502</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43404</v>
       </c>
       <c r="B22">
-        <v>0.27051694</v>
-      </c>
-      <c r="C22">
         <v>0.03308557796879108</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43434</v>
       </c>
       <c r="B23">
-        <v>0.27445999</v>
-      </c>
-      <c r="C23">
         <v>0.003103500532625647</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43465</v>
       </c>
       <c r="B24">
-        <v>0.27277796</v>
-      </c>
-      <c r="C24">
         <v>-0.001319798199392652</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43496</v>
       </c>
       <c r="B25">
-        <v>0.3099046999999999</v>
-      </c>
-      <c r="C25">
         <v>0.02916984828995628</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43524</v>
       </c>
       <c r="B26">
-        <v>0.29100989</v>
-      </c>
-      <c r="C26">
         <v>-0.01442456844379592</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43555</v>
       </c>
       <c r="B27">
-        <v>0.2792416900000001</v>
-      </c>
-      <c r="C27">
         <v>-0.009115499494740442</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43585</v>
       </c>
       <c r="B28">
-        <v>0.27330944</v>
-      </c>
-      <c r="C28">
         <v>-0.004637317597114943</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43616</v>
       </c>
       <c r="B29">
-        <v>0.2951979199999999</v>
-      </c>
-      <c r="C29">
         <v>0.01719022832344663</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43646</v>
       </c>
       <c r="B30">
-        <v>0.34628949</v>
-      </c>
-      <c r="C30">
         <v>0.03944692097714309</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43677</v>
       </c>
       <c r="B31">
-        <v>0.3460017500000001</v>
-      </c>
-      <c r="C31">
         <v>-0.0002137281781794398</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43708</v>
       </c>
       <c r="B32">
-        <v>0.34670471</v>
-      </c>
-      <c r="C32">
         <v>0.000522257864820741</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43738</v>
       </c>
       <c r="B33">
-        <v>0.3798257599999999</v>
-      </c>
-      <c r="C33">
         <v>0.0245941443243336</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43769</v>
       </c>
       <c r="B34">
-        <v>0.4217308900000001</v>
-      </c>
-      <c r="C34">
         <v>0.03036987075817477</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43799</v>
       </c>
       <c r="B35">
-        <v>0.4128921000000001</v>
-      </c>
-      <c r="C35">
         <v>-0.006216921966153532</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43830</v>
       </c>
       <c r="B36">
-        <v>0.4575696</v>
-      </c>
-      <c r="C36">
         <v>0.03162131064360829</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43861</v>
       </c>
       <c r="B37">
-        <v>0.4750221299999999</v>
-      </c>
-      <c r="C37">
         <v>0.01197371981413431</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43890</v>
       </c>
       <c r="B38">
-        <v>0.4979135100000001</v>
-      </c>
-      <c r="C38">
         <v>0.01551934681820688</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43921</v>
       </c>
       <c r="B39">
-        <v>0.3993664699999999</v>
-      </c>
-      <c r="C39">
         <v>-0.06578953947748301</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43951</v>
       </c>
       <c r="B40">
-        <v>0.4140645599999999</v>
-      </c>
-      <c r="C40">
         <v>0.01050338872275547</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43982</v>
       </c>
       <c r="B41">
-        <v>0.4448773500000001</v>
-      </c>
-      <c r="C41">
         <v>0.02179022858758306</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44012</v>
       </c>
       <c r="B42">
-        <v>0.4551010900000001</v>
-      </c>
-      <c r="C42">
         <v>0.007075853185739334</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44043</v>
       </c>
       <c r="B43">
-        <v>0.48819071</v>
-      </c>
-      <c r="C43">
         <v>0.02274042692112888</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44074</v>
       </c>
       <c r="B44">
-        <v>0.49912633</v>
-      </c>
-      <c r="C44">
         <v>0.007348265196468029</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44104</v>
       </c>
       <c r="B45">
-        <v>0.4798249999999999</v>
-      </c>
-      <c r="C45">
         <v>-0.01287505236466635</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44135</v>
       </c>
       <c r="B46">
-        <v>0.4670025099999999</v>
-      </c>
-      <c r="C46">
         <v>-0.008664869156825961</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44165</v>
       </c>
       <c r="B47">
-        <v>0.4702226</v>
-      </c>
-      <c r="C47">
-        <v>0.002195013285969161</v>
+        <v>0.002012566427033624</v>
       </c>
     </row>
   </sheetData>
